--- a/biology/Botanique/Maréchal_Foch_(cépage)/Maréchal_Foch_(cépage).xlsx
+++ b/biology/Botanique/Maréchal_Foch_(cépage)/Maréchal_Foch_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mar%C3%A9chal_Foch_(c%C3%A9page)</t>
+          <t>Maréchal_Foch_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Maréchal Foch est un cépage de raisins noirs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mar%C3%A9chal_Foch_(c%C3%A9page)</t>
+          <t>Maréchal_Foch_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Maréchal Foch est une obtention de Eugène Kuhlmann vers 1911 en croisant (Vitis riparia × Vitis rupestris) × Goldriesling dans les installations du Institut Viticole Oberlin à Colmar en Alsace et commercialisé à partir de 1921.
 Le cépage est une hybride avec des parentages de Vitis vinifera, Vitis riparia et Vitis rupestris.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mar%C3%A9chal_Foch_(c%C3%A9page)</t>
+          <t>Maréchal_Foch_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque précoce : 5 - 6 jours avant le chasselas.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mar%C3%A9chal_Foch_(c%C3%A9page)</t>
+          <t>Maréchal_Foch_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont petites et les baies sont de taille petite. La grappe est cylindrique, ailée et lâche. Le cépage est vigoureux et s'il est conduit à taille longue, la fertilité assez bonne et régulière. Il est assez résistant au mildiou, mais il craint l’oïdium.
 Le vin blanc est coloré et très alcoolique. Issu d'une vendange mûre, le vin est plat.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mar%C3%A9chal_Foch_(c%C3%A9page)</t>
+          <t>Maréchal_Foch_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Maréchal Foch est aussi connu sous le nom 188-2 Kuhlmann.
 </t>
